--- a/output/StructureDefinition-NatlDirEx-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Restriction.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T11:08:50-04:00</t>
+    <t>2022-07-27T12:20:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Restriction.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T12:20:48-04:00</t>
+    <t>2022-08-01T16:22:39-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Restriction.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T16:22:39-04:00</t>
+    <t>2022-08-03T13:02:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Restriction.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:02:02-04:00</t>
+    <t>2022-08-03T17:01:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Restriction.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T17:01:06-04:00</t>
+    <t>2022-08-04T11:49:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Restriction.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-Restriction</t>
+    <t>http://hl7.org/fhir/us/directory-exchange/StructureDefinition/NatlDirEx-Restriction</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:49:08-04:00</t>
+    <t>2022-08-05T09:45:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-Restriction</t>
+    <t>http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDir-Restriction</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -551,7 +551,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/ConsentVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/ConsentVS</t>
   </si>
   <si>
     <t>Consent.category</t>
@@ -1473,7 +1473,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.8046875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.9921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.21875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-NatlDirEx-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Restriction.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T09:45:36-04:00</t>
+    <t>2022-08-05T12:05:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
